--- a/tests/Gauges/tLists1_cell_setting.xlsx
+++ b/tests/Gauges/tLists1_cell_setting.xlsx
@@ -1232,8 +1232,8 @@
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <x:pane xSplit="0" ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
-      <x:selection activeCell="K13" sqref="K13"/>
-      <x:selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <x:selection activeCell="G29" sqref="G29"/>
+      <x:selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="11.25"/>

--- a/tests/Gauges/tLists1_cell_setting.xlsx
+++ b/tests/Gauges/tLists1_cell_setting.xlsx
@@ -90,7 +90,7 @@
             <x:rFont val="Arial"/>
             <x:family val="2"/>
           </x:rPr>
-          <x:t>31219,95</x:t>
+          <x:t>31219.95</x:t>
         </x:r>
       </x:text>
     </x:comment>
@@ -132,7 +132,7 @@
             <x:rFont val="Arial"/>
             <x:family val="2"/>
           </x:rPr>
-          <x:t>4317,75</x:t>
+          <x:t>4317.75</x:t>
         </x:r>
       </x:text>
     </x:comment>

--- a/tests/Gauges/tLists1_cell_setting.xlsx
+++ b/tests/Gauges/tLists1_cell_setting.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <x:workbookPr codeName="ЭтаКнига"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\asr\ClosedXML.Report\tests\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <x:bookViews>
     <x:workbookView xWindow="600" yWindow="615" windowWidth="17400" windowHeight="11460" firstSheet="0" activeTab="0"/>
   </x:bookViews>
@@ -10,8 +15,8 @@
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames>
+    <x:definedName name="Orders_tpl" localSheetId="0">Sheet1!$A$12:$J$20</x:definedName>
     <x:definedName name="Orders">Sheet1!$A$12:$J$20</x:definedName>
-    <x:definedName name="Orders_tpl">Sheet1!$A$12:$J$20</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="124519"/>
 </x:workbook>
@@ -268,11 +273,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:numFmts count="1">
     <x:numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </x:numFmts>
-  <x:fonts count="18">
+  <x:fonts count="18" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="8"/>
       <x:name val="Arial"/>
@@ -837,6 +842,14 @@
       <x:color rgb="FF9F7CFF"/>
     </x:mruColors>
   </x:colors>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -1223,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr codeName="Лист1">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
     <x:pageSetUpPr fitToPage="1"/>
@@ -1232,11 +1245,11 @@
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <x:pane xSplit="0" ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
-      <x:selection activeCell="G29" sqref="G29"/>
-      <x:selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <x:selection activeCell="C21" sqref="C21"/>
+      <x:selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="11.25"/>
+  <x:sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <x:cols>
     <x:col min="1" max="1" width="4.164062" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9" style="0" customWidth="1"/>
@@ -1253,7 +1266,7 @@
     <x:col min="13" max="13" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13" customFormat="1" ht="51" customHeight="1">
+    <x:row r="1" spans="1:13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="B1" s="47" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1266,7 +1279,7 @@
       <x:c r="I1" s="48" t="s"/>
       <x:c r="J1" s="48" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+    <x:row r="2" spans="1:13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="B2" s="49" t="s"/>
       <x:c r="C2" s="49" t="s"/>
       <x:c r="D2" s="49" t="s"/>
@@ -1283,7 +1296,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:13" customFormat="1" ht="18" customHeight="1">
+    <x:row r="3" spans="1:13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A3" s="50" t="s"/>
       <x:c r="B3" s="51" t="s">
         <x:v>3</x:v>
@@ -1303,20 +1316,20 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:13">
+    <x:row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <x:c r="B4" s="52" t="s"/>
       <x:c r="K4" s="46" t="s"/>
       <x:c r="L4" s="44" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:13">
+    <x:row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <x:c r="B5" s="51" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K5" s="46" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:13" customFormat="1" ht="12" customHeight="1">
+    <x:row r="6" spans="1:13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="B6" s="35">
         <x:f>"632-1 Third Frydenhoj"&amp;" "&amp;""</x:f>
       </x:c>
@@ -1330,7 +1343,7 @@
       <x:c r="J6" s="9" t="s"/>
       <x:c r="K6" s="46" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:13" customFormat="1" ht="12" customHeight="1">
+    <x:row r="7" spans="1:13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="B7" s="54" t="s"/>
       <x:c r="C7" s="55" t="s"/>
       <x:c r="D7" s="55" t="s"/>
@@ -1340,7 +1353,7 @@
       <x:c r="H7" s="54" t="s"/>
       <x:c r="K7" s="46" t="s"/>
     </x:row>
-    <x:row r="8" spans="1:13">
+    <x:row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <x:c r="B8" s="51" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1355,7 +1368,7 @@
       </x:c>
       <x:c r="K8" s="46" t="s"/>
     </x:row>
-    <x:row r="9" spans="1:13" customFormat="1" ht="12" customHeight="1">
+    <x:row r="9" spans="1:13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="B9" s="36" t="s">
         <x:v>11</x:v>
       </x:c>
@@ -1375,7 +1388,7 @@
       <x:c r="J9" s="56" t="s"/>
       <x:c r="K9" s="46" t="s"/>
     </x:row>
-    <x:row r="10" spans="1:13" customFormat="1" ht="12" customHeight="1">
+    <x:row r="10" spans="1:13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="B10" s="57" t="s"/>
       <x:c r="C10" s="57" t="s"/>
       <x:c r="D10" s="57" t="s"/>
@@ -1387,7 +1400,7 @@
       <x:c r="J10" s="57" t="s"/>
       <x:c r="K10" s="46" t="s"/>
     </x:row>
-    <x:row r="11" spans="1:13" customFormat="1" ht="22.5" customHeight="1">
+    <x:row r="11" spans="1:13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="B11" s="58" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -1417,7 +1430,7 @@
       </x:c>
       <x:c r="K11" s="46" t="s"/>
     </x:row>
-    <x:row r="12" spans="1:13">
+    <x:row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <x:c r="B12" s="45" t="n">
         <x:v>1005</x:v>
       </x:c>
@@ -1442,7 +1455,7 @@
         <x:v>4807</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:13" customFormat="1" ht="12" customHeight="1">
+    <x:row r="13" spans="1:13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="B13" s="45" t="n">
         <x:v>1059</x:v>
       </x:c>
@@ -1471,7 +1484,7 @@
         <x:v>2150</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:13" customFormat="1" ht="12" customHeight="1">
+    <x:row r="14" spans="1:13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="B14" s="45" t="n">
         <x:v>1072</x:v>
       </x:c>
@@ -1496,7 +1509,7 @@
         <x:v>3596</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:13">
+    <x:row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <x:c r="B15" s="45" t="n">
         <x:v>1080</x:v>
       </x:c>
@@ -1521,7 +1534,7 @@
         <x:v>9634</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:13" customFormat="1" ht="12" customHeight="1">
+    <x:row r="16" spans="1:13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="B16" s="45" t="n">
         <x:v>1105</x:v>
       </x:c>
@@ -1687,7 +1700,7 @@
     </x:cfRule>
   </x:conditionalFormatting>
   <x:dataValidations count="2">
-    <x:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="Payment Method Validation" error="Wrong value.&#10;Allowed values: Visa, Credit, Cash" promptTitle="Payment Method" prompt="Allowed values: Visa, Credit, Cash" sqref="G12:G20">
+    <x:dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="Payment Method Validation" error="Wrong value._x000a_Allowed values: Visa, Credit, Cash" promptTitle="Payment Method" prompt="Allowed values: Visa, Credit, Cash" sqref="G12:G20">
       <x:formula1>$L$2:$L$4</x:formula1>
       <x:formula2/>
     </x:dataValidation>
